--- a/Training/Training Operation Profiles of Samples.xlsx
+++ b/Training/Training Operation Profiles of Samples.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CE902-4A47-F34E-8484-EB2E3B710AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D842BF-8129-1D49-AF49-454027AE9D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>45-53</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>Solid Ratio(%)</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="312" zoomScaleNormal="312" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="312" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -469,13 +469,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="11" x14ac:dyDescent="0.2">
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>0.4</v>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>0.4</v>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>0.4</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>0.4</v>
@@ -527,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>0.42499999999999999</v>
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>0.42499999999999999</v>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
         <v>0.42499999999999999</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>0.42499999999999999</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>0.45</v>
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>0.45</v>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
         <v>0.45</v>
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
         <v>0.45</v>
@@ -615,7 +615,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>0.4</v>
@@ -626,7 +626,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>0.4</v>
@@ -637,7 +637,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>0.4</v>
@@ -648,7 +648,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>0.4</v>
@@ -659,7 +659,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>0.42499999999999999</v>
@@ -670,7 +670,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>0.42499999999999999</v>
@@ -681,7 +681,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
         <v>0.42499999999999999</v>
@@ -692,7 +692,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>0.42499999999999999</v>
@@ -703,7 +703,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
         <v>0.45</v>
@@ -714,7 +714,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>0.45</v>
@@ -725,7 +725,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
         <v>0.45</v>
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <v>0.45</v>
